--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470E9587-3277-420E-A73F-5ADC09BCCA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC068A51-6A6F-452E-B45F-9A1CD79BE8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -825,7 +825,7 @@
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC068A51-6A6F-452E-B45F-9A1CD79BE8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD9F018-8644-4D3F-A32C-CACBD8C2D1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Login</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Seguridad de la Aplicaciòn</t>
   </si>
   <si>
-    <t>Ventas</t>
-  </si>
-  <si>
     <t>Kardex</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Cambio de Clave</t>
   </si>
   <si>
-    <t>Salir</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Ayuda</t>
   </si>
   <si>
-    <t>Falta fondo e ícono</t>
-  </si>
-  <si>
     <t>Compras con filtros</t>
   </si>
   <si>
@@ -180,6 +171,12 @@
   </si>
   <si>
     <t>Asegurarse que no da error al querer borrar un registro que tenga relaciones</t>
+  </si>
+  <si>
+    <t>Venta nueva</t>
+  </si>
+  <si>
+    <t>Ventas con filtro</t>
   </si>
 </sst>
 </file>
@@ -207,18 +204,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -254,15 +245,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,267 +570,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37124253-E01A-4385-92A0-6B1F6853F919}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.6640625" style="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="1"/>
+    <col min="3" max="3" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B48">
-    <sortCondition ref="A1:A48"/>
-  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD9F018-8644-4D3F-A32C-CACBD8C2D1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A69BEC6-1B93-4123-8AD8-6A91D7D6449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Login</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Ventas con filtro</t>
+  </si>
+  <si>
+    <t>Tipos de documento</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37124253-E01A-4385-92A0-6B1F6853F919}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -617,7 +620,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -625,7 +628,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -633,7 +636,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -641,7 +644,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -649,8 +652,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
+      <c r="A9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>34</v>
@@ -658,7 +661,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -666,7 +669,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>36</v>
@@ -674,7 +677,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>37</v>
@@ -682,7 +685,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -690,7 +693,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>45</v>
@@ -698,7 +701,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
@@ -706,7 +709,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
@@ -714,7 +717,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>32</v>
@@ -722,7 +725,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>38</v>
@@ -730,7 +733,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>40</v>
@@ -738,7 +741,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>39</v>
@@ -746,7 +749,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>22</v>
@@ -754,7 +757,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
@@ -762,7 +765,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -770,10 +773,15 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A69BEC6-1B93-4123-8AD8-6A91D7D6449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB933E3D-1502-4641-B05E-4EE7411EBF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -668,7 +668,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB933E3D-1502-4641-B05E-4EE7411EBF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E26BDA9-B1AA-4AE5-AF66-17DB8838B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -676,7 +676,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E26BDA9-B1AA-4AE5-AF66-17DB8838B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3753D7B-81BF-42B1-B3AA-A54A03AB8F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -684,7 +684,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3753D7B-81BF-42B1-B3AA-A54A03AB8F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D05660-5A21-4ADF-A49D-F019103FDD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -692,7 +692,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -700,7 +700,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D05660-5A21-4ADF-A49D-F019103FDD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AEA250-BC01-4473-99D6-683F29B940C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -708,7 +708,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -716,7 +716,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -724,7 +724,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AEA250-BC01-4473-99D6-683F29B940C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39611D4C-595E-4620-9664-6C950634FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -207,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -257,6 +263,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,7 +585,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -732,7 +741,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39611D4C-595E-4620-9664-6C950634FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8C08A9-D9BB-483A-B599-2E276A9E0BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -757,7 +757,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="3" t="s">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8C08A9-D9BB-483A-B599-2E276A9E0BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8655755-CB2D-4362-8270-9E8D9778A485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Login</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>Tipos de documento</t>
+  </si>
+  <si>
+    <t>Da error al hacer clic en el datagridview</t>
+  </si>
+  <si>
+    <t>Ponerle rango de fecha</t>
+  </si>
+  <si>
+    <t>Verificarlo bien con todos los movimientos</t>
   </si>
 </sst>
 </file>
@@ -582,213 +591,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37124253-E01A-4385-92A0-6B1F6853F919}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" style="1"/>
-    <col min="3" max="3" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.5546875" style="1"/>
+    <col min="2" max="2" width="36.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" style="1"/>
+    <col min="4" max="4" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8655755-CB2D-4362-8270-9E8D9778A485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A49FB4-C915-49F4-9D0F-F8E573D80D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Login</t>
   </si>
@@ -113,18 +113,6 @@
     <t>Compra nueva</t>
   </si>
   <si>
-    <t>Devoluciòn Clientes con filtros</t>
-  </si>
-  <si>
-    <t>Devoluciòn Clientes nueva</t>
-  </si>
-  <si>
-    <t>Devoluciòn Proveedores con filtros</t>
-  </si>
-  <si>
-    <t>Devoluciòn Proveedores nueva</t>
-  </si>
-  <si>
     <t>Listado de Clientes</t>
   </si>
   <si>
@@ -189,6 +177,24 @@
   </si>
   <si>
     <t>Verificarlo bien con todos los movimientos</t>
+  </si>
+  <si>
+    <t>Agregar buscador de Compras</t>
+  </si>
+  <si>
+    <t>Agregar buscador de Ventas</t>
+  </si>
+  <si>
+    <t>Devolución Clientes con filtros</t>
+  </si>
+  <si>
+    <t>Devolución Clientes nueva</t>
+  </si>
+  <si>
+    <t>Devolución Proveedores con filtros</t>
+  </si>
+  <si>
+    <t>Devolución Proveedores nueva</t>
   </si>
 </sst>
 </file>
@@ -591,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37124253-E01A-4385-92A0-6B1F6853F919}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -603,106 +609,110 @@
     <col min="2" max="2" width="36.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.5546875" style="1"/>
     <col min="4" max="4" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.5546875" style="1"/>
+    <col min="5" max="5" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,28 +720,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -739,7 +749,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -747,7 +757,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -755,10 +765,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -766,15 +776,15 @@
         <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>22</v>
@@ -782,7 +792,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
@@ -793,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -804,15 +814,18 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A49FB4-C915-49F4-9D0F-F8E573D80D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6767FF0-E41B-4875-83AD-AE14BAD74CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,7 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -676,7 +676,7 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6767FF0-E41B-4875-83AD-AE14BAD74CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45301611-80E4-4FA5-A546-D6AE0B3D3D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Login</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Devolución Proveedores nueva</t>
+  </si>
+  <si>
+    <t>Falta poder imprimir el listado</t>
+  </si>
+  <si>
+    <t>Inventarios con filtros</t>
   </si>
 </sst>
 </file>
@@ -600,7 +606,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -684,8 +690,11 @@
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -717,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -733,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -749,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -757,7 +766,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -768,7 +777,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -776,7 +785,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -787,7 +796,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -795,7 +804,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,7 +815,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -817,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -826,6 +835,9 @@
       </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45301611-80E4-4FA5-A546-D6AE0B3D3D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA73AEC-3E3D-4068-9F37-1E76C4470192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Login</t>
   </si>
@@ -606,7 +606,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -701,23 +701,29 @@
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
     </row>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA73AEC-3E3D-4068-9F37-1E76C4470192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255756B8-1DCD-4785-9CF2-67C15A6470F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Login</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Ayuda</t>
   </si>
   <si>
-    <t>Compras con filtros</t>
-  </si>
-  <si>
     <t>Compra nueva</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>Venta nueva</t>
   </si>
   <si>
-    <t>Ventas con filtro</t>
-  </si>
-  <si>
     <t>Tipos de documento</t>
   </si>
   <si>
@@ -179,12 +173,6 @@
     <t>Verificarlo bien con todos los movimientos</t>
   </si>
   <si>
-    <t>Agregar buscador de Compras</t>
-  </si>
-  <si>
-    <t>Agregar buscador de Ventas</t>
-  </si>
-  <si>
     <t>Devolución Clientes con filtros</t>
   </si>
   <si>
@@ -201,6 +189,21 @@
   </si>
   <si>
     <t>Inventarios con filtros</t>
+  </si>
+  <si>
+    <t>Busqueda de Compras</t>
+  </si>
+  <si>
+    <t>Busqueda de Ventas</t>
+  </si>
+  <si>
+    <t>Ventas con Filtros</t>
+  </si>
+  <si>
+    <t>Compras con Filtros</t>
+  </si>
+  <si>
+    <t>Poder editar la fecha de una Compra</t>
   </si>
 </sst>
 </file>
@@ -603,15 +606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37124253-E01A-4385-92A0-6B1F6853F919}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="3.5546875" style="1"/>
     <col min="4" max="4" width="50.109375" style="1" bestFit="1" customWidth="1"/>
@@ -624,18 +627,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -643,15 +643,15 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -659,15 +659,15 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>40</v>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -675,26 +675,26 @@
         <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -702,10 +702,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -713,18 +713,18 @@
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -772,42 +772,39 @@
         <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>43</v>
+      <c r="A22" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>22</v>
@@ -815,35 +812,50 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
+      <c r="A24" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
+      <c r="A25" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255756B8-1DCD-4785-9CF2-67C15A6470F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4C3F09-426D-4FE4-8201-F8E89A64A993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Login</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Da error al hacer clic en el datagridview</t>
-  </si>
-  <si>
-    <t>Ponerle rango de fecha</t>
   </si>
   <si>
     <t>Verificarlo bien con todos los movimientos</t>
@@ -231,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -290,6 +293,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,7 +615,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -626,8 +632,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>48</v>
+      <c r="D1" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -635,15 +641,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>46</v>
+      <c r="D3" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,7 +664,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -674,7 +680,7 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -694,7 +700,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -705,7 +711,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -716,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -731,8 +737,8 @@
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -788,15 +794,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>55</v>
+      <c r="A21" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>34</v>
@@ -804,7 +810,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>22</v>
@@ -823,26 +829,23 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>54</v>
+      <c r="A25" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -850,12 +853,12 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4C3F09-426D-4FE4-8201-F8E89A64A993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D56E993-3F4F-4D60-8C68-84F7AC44BF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B16" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -801,7 +801,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -809,7 +809,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="3" t="s">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D56E993-3F4F-4D60-8C68-84F7AC44BF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C9A1DC-D616-4E9E-80BB-25A7450A0652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Login</t>
   </si>
@@ -201,6 +201,27 @@
   </si>
   <si>
     <t>Poder editar la fecha de una Compra</t>
+  </si>
+  <si>
+    <t>Ver una Compra</t>
+  </si>
+  <si>
+    <t>Ver una Venta</t>
+  </si>
+  <si>
+    <t>Ver una Devolución Proveedores</t>
+  </si>
+  <si>
+    <t>Ver una Devolución Clientes</t>
+  </si>
+  <si>
+    <t>Ver una Salida</t>
+  </si>
+  <si>
+    <t>Ver un Traslado</t>
+  </si>
+  <si>
+    <t>Ver un Inventario</t>
   </si>
 </sst>
 </file>
@@ -228,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -296,6 +323,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37124253-E01A-4385-92A0-6B1F6853F919}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B15:B16"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -640,32 +670,32 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>45</v>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
+      <c r="D5" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -673,56 +703,47 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>38</v>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
+      <c r="D8" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
+      <c r="D11" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -730,55 +751,64 @@
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>50</v>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
+      <c r="D15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
+      <c r="D18" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -789,7 +819,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -797,7 +827,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -805,60 +835,85 @@
         <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
+      <c r="A27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C9A1DC-D616-4E9E-80BB-25A7450A0652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204FAB1C-0C3D-4985-A312-EC4EDF0970D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Login</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Ver un Inventario</t>
+  </si>
+  <si>
+    <t>Falta el Detalle</t>
   </si>
 </sst>
 </file>
@@ -276,7 +279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +648,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -662,7 +665,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -686,7 +689,7 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -734,7 +737,7 @@
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -839,8 +842,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>26</v>
@@ -882,7 +888,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="3" t="s">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204FAB1C-0C3D-4985-A312-EC4EDF0970D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB18250-1ED9-40B0-A583-5F6C54CC4224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Login</t>
   </si>
@@ -225,13 +225,16 @@
   </si>
   <si>
     <t>Falta el Detalle</t>
+  </si>
+  <si>
+    <t>A medio hacer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,8 +254,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +285,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -328,7 +339,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,7 +662,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -673,7 +687,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -697,7 +711,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -721,7 +735,7 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -745,7 +759,7 @@
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -798,23 +812,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -825,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -833,7 +851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -841,7 +859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
@@ -852,7 +870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -860,7 +878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -871,7 +889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -879,7 +897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -887,15 +905,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -903,7 +921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -914,7 +932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB18250-1ED9-40B0-A583-5F6C54CC4224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2F5E30-AB8A-4381-8CEC-F6C3B1490D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Login</t>
   </si>
@@ -225,16 +225,13 @@
   </si>
   <si>
     <t>Falta el Detalle</t>
-  </si>
-  <si>
-    <t>A medio hacer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,13 +258,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -290,7 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -336,13 +326,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,7 +649,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -687,7 +674,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -711,7 +698,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -735,7 +722,7 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -759,7 +746,7 @@
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -816,21 +803,18 @@
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -860,7 +844,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -906,7 +890,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="3" t="s">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2F5E30-AB8A-4381-8CEC-F6C3B1490D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A580403-222C-4DAA-9206-57BD899A0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Login</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>Ver un Inventario</t>
-  </si>
-  <si>
-    <t>Falta el Detalle</t>
   </si>
 </sst>
 </file>
@@ -649,7 +646,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -844,11 +841,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>26</v>
@@ -890,7 +884,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="3" t="s">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A580403-222C-4DAA-9206-57BD899A0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489E637F-C700-4D46-97BD-496CC8FE3E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -646,7 +646,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -719,7 +719,7 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
     </row>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489E637F-C700-4D46-97BD-496CC8FE3E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C29CACB-1CE2-4272-93F1-EBD55DC8083A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -646,7 +646,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -671,7 +671,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
     </row>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C29CACB-1CE2-4272-93F1-EBD55DC8083A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C726D1-CF78-46DF-A03A-42C03711C36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -646,7 +646,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -695,7 +695,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
     </row>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C726D1-CF78-46DF-A03A-42C03711C36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6C8909-9ABA-4C8D-8F2E-D90FF4F46F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -646,7 +646,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -743,7 +743,7 @@
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>61</v>
       </c>
     </row>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6C8909-9ABA-4C8D-8F2E-D90FF4F46F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959135E-269B-465B-A512-1FAEDADF8582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Login</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Ver un Inventario</t>
+  </si>
+  <si>
+    <t>En todos los "Ver un" poder cambiar el ID para buscar otro</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37124253-E01A-4385-92A0-6B1F6853F919}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -671,7 +674,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -695,7 +698,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -719,7 +722,7 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -743,7 +746,7 @@
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -841,7 +844,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -884,7 +887,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -916,6 +919,11 @@
       </c>
       <c r="D30" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959135E-269B-465B-A512-1FAEDADF8582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE409B9-7B3D-491A-AACC-39004555A6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -330,6 +330,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +652,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -844,7 +847,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -887,7 +890,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -922,7 +925,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>63</v>
       </c>
     </row>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE409B9-7B3D-491A-AACC-39004555A6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47059B03-E387-4D51-B445-7FB90F16959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Login</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>En todos los "Ver un" poder cambiar el ID para buscar otro</t>
+  </si>
+  <si>
+    <t>Completar</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,12 +278,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -327,12 +324,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37124253-E01A-4385-92A0-6B1F6853F919}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -677,7 +668,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -701,7 +692,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -725,7 +716,7 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -749,7 +740,7 @@
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -814,7 +805,7 @@
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="5"/>
@@ -826,8 +817,11 @@
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -924,8 +918,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="7" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
         <v>63</v>
       </c>
     </row>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47059B03-E387-4D51-B445-7FB90F16959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983EA7DE-279B-45D5-9072-5F5CDA9FD37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Login</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>En todos los "Ver un" poder cambiar el ID para buscar otro</t>
-  </si>
-  <si>
-    <t>Completar</t>
   </si>
 </sst>
 </file>
@@ -643,7 +640,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D30" sqref="D20:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -817,11 +814,8 @@
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983EA7DE-279B-45D5-9072-5F5CDA9FD37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372168F6-D790-4263-8966-78EBEE7C56B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Login</t>
   </si>
@@ -640,7 +640,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D20:D30"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -753,11 +753,8 @@
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372168F6-D790-4263-8966-78EBEE7C56B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D607376-A16C-432B-B1C5-ED46FDFA9121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Login</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>Devolución Proveedores nueva</t>
-  </si>
-  <si>
-    <t>Falta poder imprimir el listado</t>
   </si>
   <si>
     <t>Inventarios con filtros</t>
@@ -640,7 +637,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -653,7 +650,7 @@
     <col min="6" max="16384" width="3.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,15 +658,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -677,7 +674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -685,15 +682,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -701,7 +698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -709,15 +706,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -725,7 +722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -733,15 +730,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -749,7 +746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -757,29 +754,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -792,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -800,7 +791,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="5"/>
     </row>
@@ -817,7 +808,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>40</v>
@@ -825,7 +816,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>25</v>
@@ -833,7 +824,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>26</v>
@@ -841,7 +832,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>27</v>
@@ -860,7 +851,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>35</v>
@@ -868,7 +859,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>34</v>
@@ -876,7 +867,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>22</v>
@@ -911,7 +902,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D607376-A16C-432B-B1C5-ED46FDFA9121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C8285F-6637-4AAC-B232-B6D657FA0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Login</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Tipos de documento</t>
   </si>
   <si>
-    <t>Da error al hacer clic en el datagridview</t>
-  </si>
-  <si>
     <t>Verificarlo bien con todos los movimientos</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>En todos los "Ver un" poder cambiar el ID para buscar otro</t>
+  </si>
+  <si>
+    <t>Cambio de Precios Costos y Utilidades</t>
   </si>
 </sst>
 </file>
@@ -634,275 +634,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37124253-E01A-4385-92A0-6B1F6853F919}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5546875" style="1"/>
-    <col min="4" max="4" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="3.5546875" style="1"/>
+    <col min="3" max="3" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/MiAppComercial.xlsx
+++ b/MiAppComercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\MiAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C8285F-6637-4AAC-B232-B6D657FA0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57766839-6162-47F3-B1A2-17EE926A1F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2304E8A-2790-4DC1-9361-D98A59767F40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Login</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Tipos de documento</t>
-  </si>
-  <si>
-    <t>Verificarlo bien con todos los movimientos</t>
   </si>
   <si>
     <t>Devolución Clientes con filtros</t>
@@ -636,9 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37124253-E01A-4385-92A0-6B1F6853F919}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5546875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
@@ -654,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -662,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -670,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -678,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -686,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -710,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -734,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -782,7 +777,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -790,7 +785,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -804,7 +799,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
@@ -812,7 +807,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>23</v>
@@ -820,31 +815,31 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
+      <c r="C24" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>25</v>
@@ -852,7 +847,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>26</v>
@@ -860,7 +855,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
@@ -875,11 +870,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>35</v>
@@ -887,7 +879,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>34</v>
